--- a/ghi chú/plan.xlsx
+++ b/ghi chú/plan.xlsx
@@ -116,12 +116,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,9 +142,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -146,6 +155,21 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -168,26 +192,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -202,11 +211,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:E19" totalsRowShown="0">
   <autoFilter ref="A3:E19"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Công việc" dataDxfId="6"/>
-    <tableColumn id="2" name="Miêu tả" dataDxfId="5"/>
-    <tableColumn id="3" name="Người làm" dataDxfId="4"/>
-    <tableColumn id="4" name="Hết hạn" dataDxfId="3"/>
-    <tableColumn id="5" name="Hoàn thành" dataDxfId="2"/>
+    <tableColumn id="1" name="Công việc" dataDxfId="4"/>
+    <tableColumn id="2" name="Miêu tả" dataDxfId="3"/>
+    <tableColumn id="3" name="Người làm" dataDxfId="2"/>
+    <tableColumn id="4" name="Hết hạn" dataDxfId="1"/>
+    <tableColumn id="5" name="Hoàn thành" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -502,7 +511,7 @@
   <dimension ref="A3:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,8 +621,8 @@
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1" t="b">
-        <v>0</v>
+      <c r="E8" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -629,8 +638,8 @@
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="1" t="b">
-        <v>0</v>
+      <c r="E9" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -646,8 +655,8 @@
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="1" t="b">
-        <v>0</v>
+      <c r="E10" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -720,8 +729,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/ghi chú/plan.xlsx
+++ b/ghi chú/plan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AppServ\www\furniture\ghi chú\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="72" windowWidth="20112" windowHeight="7992"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,6 +208,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -264,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,7 +307,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -510,20 +518,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="31" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +548,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -553,11 +561,11 @@
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -570,11 +578,11 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -587,11 +595,11 @@
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -604,11 +612,11 @@
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -625,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -642,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -659,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -676,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -693,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -710,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -742,7 +750,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -754,7 +762,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
